--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Cxcl1-Xcr1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Cxcl1-Xcr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,57 +534,57 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.6833480306846</v>
+        <v>24.94218233333334</v>
       </c>
       <c r="H2">
-        <v>24.6833480306846</v>
+        <v>74.82654700000001</v>
       </c>
       <c r="I2">
-        <v>0.06552274685839797</v>
+        <v>0.06317857116130968</v>
       </c>
       <c r="J2">
-        <v>0.06552274685839797</v>
+        <v>0.06317857116130969</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.166509228114347</v>
+        <v>0.187039</v>
       </c>
       <c r="N2">
-        <v>0.166509228114347</v>
+        <v>0.5611170000000001</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.3136962767375905</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.3136962767375905</v>
       </c>
       <c r="Q2">
-        <v>4.11000522786708</v>
+        <v>4.665160841444335</v>
       </c>
       <c r="R2">
-        <v>4.11000522786708</v>
+        <v>41.98644757299901</v>
       </c>
       <c r="S2">
-        <v>0.06552274685839797</v>
+        <v>0.01981888254290375</v>
       </c>
       <c r="T2">
-        <v>0.06552274685839797</v>
+        <v>0.01981888254290376</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>241.649180971339</v>
+        <v>24.94218233333334</v>
       </c>
       <c r="H3">
-        <v>241.649180971339</v>
+        <v>74.82654700000001</v>
       </c>
       <c r="I3">
-        <v>0.6414655780747867</v>
+        <v>0.06317857116130968</v>
       </c>
       <c r="J3">
-        <v>0.6414655780747867</v>
+        <v>0.06317857116130969</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.166509228114347</v>
+        <v>0.4092033333333334</v>
       </c>
       <c r="N3">
-        <v>0.166509228114347</v>
+        <v>1.22761</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.6863037232624095</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.6863037232624095</v>
       </c>
       <c r="Q3">
-        <v>40.23681859800181</v>
+        <v>10.20642415140778</v>
       </c>
       <c r="R3">
-        <v>40.23681859800181</v>
+        <v>91.85781736267002</v>
       </c>
       <c r="S3">
-        <v>0.6414655780747867</v>
+        <v>0.04335968861840592</v>
       </c>
       <c r="T3">
-        <v>0.6414655780747867</v>
+        <v>0.04335968861840593</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -658,57 +658,57 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>49.7029396465607</v>
+        <v>242.358393</v>
       </c>
       <c r="H4">
-        <v>49.7029396465607</v>
+        <v>727.0751789999999</v>
       </c>
       <c r="I4">
-        <v>0.1319380632048522</v>
+        <v>0.6138940359772778</v>
       </c>
       <c r="J4">
-        <v>0.1319380632048522</v>
+        <v>0.6138940359772779</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.166509228114347</v>
+        <v>0.187039</v>
       </c>
       <c r="N4">
-        <v>0.166509228114347</v>
+        <v>0.5611170000000001</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.3136962767375905</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.3136962767375905</v>
       </c>
       <c r="Q4">
-        <v>8.275998115562798</v>
+        <v>45.330471468327</v>
       </c>
       <c r="R4">
-        <v>8.275998115562798</v>
+        <v>407.974243214943</v>
       </c>
       <c r="S4">
-        <v>0.1319380632048522</v>
+        <v>0.1925762733974845</v>
       </c>
       <c r="T4">
-        <v>0.1319380632048522</v>
+        <v>0.1925762733974845</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>45.8201713284343</v>
+        <v>242.358393</v>
       </c>
       <c r="H5">
-        <v>45.8201713284343</v>
+        <v>727.0751789999999</v>
       </c>
       <c r="I5">
-        <v>0.121631128938798</v>
+        <v>0.6138940359772778</v>
       </c>
       <c r="J5">
-        <v>0.121631128938798</v>
+        <v>0.6138940359772779</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.166509228114347</v>
+        <v>0.4092033333333334</v>
       </c>
       <c r="N5">
-        <v>0.166509228114347</v>
+        <v>1.22761</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.6863037232624095</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.6863037232624095</v>
       </c>
       <c r="Q5">
-        <v>7.629481359964729</v>
+        <v>99.17386227691</v>
       </c>
       <c r="R5">
-        <v>7.629481359964729</v>
+        <v>892.56476049219</v>
       </c>
       <c r="S5">
-        <v>0.121631128938798</v>
+        <v>0.4213177625797933</v>
       </c>
       <c r="T5">
-        <v>0.121631128938798</v>
+        <v>0.4213177625797934</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -782,52 +782,362 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.8585427178567</v>
+        <v>56.60464166666667</v>
       </c>
       <c r="H6">
-        <v>14.8585427178567</v>
+        <v>169.813925</v>
       </c>
       <c r="I6">
-        <v>0.03944248292316505</v>
+        <v>0.1433796102443937</v>
       </c>
       <c r="J6">
-        <v>0.03944248292316505</v>
+        <v>0.1433796102443937</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.166509228114347</v>
+        <v>0.187039</v>
       </c>
       <c r="N6">
-        <v>0.166509228114347</v>
+        <v>0.5611170000000001</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.3136962767375905</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.3136962767375905</v>
       </c>
       <c r="Q6">
-        <v>2.474084478854371</v>
+        <v>10.58727557269167</v>
       </c>
       <c r="R6">
-        <v>2.474084478854371</v>
+        <v>95.28548015422503</v>
       </c>
       <c r="S6">
-        <v>0.03944248292316505</v>
+        <v>0.04497764989375318</v>
       </c>
       <c r="T6">
-        <v>0.03944248292316505</v>
+        <v>0.04497764989375318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>56.60464166666667</v>
+      </c>
+      <c r="H7">
+        <v>169.813925</v>
+      </c>
+      <c r="I7">
+        <v>0.1433796102443937</v>
+      </c>
+      <c r="J7">
+        <v>0.1433796102443937</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.4092033333333334</v>
+      </c>
+      <c r="N7">
+        <v>1.22761</v>
+      </c>
+      <c r="O7">
+        <v>0.6863037232624095</v>
+      </c>
+      <c r="P7">
+        <v>0.6863037232624095</v>
+      </c>
+      <c r="Q7">
+        <v>23.16280805213889</v>
+      </c>
+      <c r="R7">
+        <v>208.46527246925</v>
+      </c>
+      <c r="S7">
+        <v>0.0984019603506405</v>
+      </c>
+      <c r="T7">
+        <v>0.0984019603506405</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>55.03884300000001</v>
+      </c>
+      <c r="H8">
+        <v>165.116529</v>
+      </c>
+      <c r="I8">
+        <v>0.1394134407583308</v>
+      </c>
+      <c r="J8">
+        <v>0.1394134407583308</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.187039</v>
+      </c>
+      <c r="N8">
+        <v>0.5611170000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.3136962767375905</v>
+      </c>
+      <c r="P8">
+        <v>0.3136962767375905</v>
+      </c>
+      <c r="Q8">
+        <v>10.294410155877</v>
+      </c>
+      <c r="R8">
+        <v>92.64969140289303</v>
+      </c>
+      <c r="S8">
+        <v>0.04373347729306501</v>
+      </c>
+      <c r="T8">
+        <v>0.04373347729306501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>55.03884300000001</v>
+      </c>
+      <c r="H9">
+        <v>165.116529</v>
+      </c>
+      <c r="I9">
+        <v>0.1394134407583308</v>
+      </c>
+      <c r="J9">
+        <v>0.1394134407583308</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.4092033333333334</v>
+      </c>
+      <c r="N9">
+        <v>1.22761</v>
+      </c>
+      <c r="O9">
+        <v>0.6863037232624095</v>
+      </c>
+      <c r="P9">
+        <v>0.6863037232624095</v>
+      </c>
+      <c r="Q9">
+        <v>22.52207801841</v>
+      </c>
+      <c r="R9">
+        <v>202.69870216569</v>
+      </c>
+      <c r="S9">
+        <v>0.09567996346526578</v>
+      </c>
+      <c r="T9">
+        <v>0.09567996346526578</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>15.84458233333334</v>
+      </c>
+      <c r="H10">
+        <v>47.53374700000001</v>
+      </c>
+      <c r="I10">
+        <v>0.04013434185868808</v>
+      </c>
+      <c r="J10">
+        <v>0.04013434185868808</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.187039</v>
+      </c>
+      <c r="N10">
+        <v>0.5611170000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.3136962767375905</v>
+      </c>
+      <c r="P10">
+        <v>0.3136962767375905</v>
+      </c>
+      <c r="Q10">
+        <v>2.963554835044334</v>
+      </c>
+      <c r="R10">
+        <v>26.67199351539901</v>
+      </c>
+      <c r="S10">
+        <v>0.01258999361038408</v>
+      </c>
+      <c r="T10">
+        <v>0.01258999361038408</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>15.84458233333334</v>
+      </c>
+      <c r="H11">
+        <v>47.53374700000001</v>
+      </c>
+      <c r="I11">
+        <v>0.04013434185868808</v>
+      </c>
+      <c r="J11">
+        <v>0.04013434185868808</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.4092033333333334</v>
+      </c>
+      <c r="N11">
+        <v>1.22761</v>
+      </c>
+      <c r="O11">
+        <v>0.6863037232624095</v>
+      </c>
+      <c r="P11">
+        <v>0.6863037232624095</v>
+      </c>
+      <c r="Q11">
+        <v>6.483655906074445</v>
+      </c>
+      <c r="R11">
+        <v>58.35290315467001</v>
+      </c>
+      <c r="S11">
+        <v>0.027544348248304</v>
+      </c>
+      <c r="T11">
+        <v>0.02754434824830401</v>
       </c>
     </row>
   </sheetData>
